--- a/biology/Médecine/Clinique_Saint-Vincent_(Saint-Grégoire)/Clinique_Saint-Vincent_(Saint-Grégoire).xlsx
+++ b/biology/Médecine/Clinique_Saint-Vincent_(Saint-Grégoire)/Clinique_Saint-Vincent_(Saint-Grégoire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Clinique_Saint-Vincent_(Saint-Gr%C3%A9goire)</t>
+          <t>Clinique_Saint-Vincent_(Saint-Grégoire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La clinique Saint-Vincent est un établissement de soins privé situé à Saint-Grégoire, en Bretagne, en activité de 1988 à 2004.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Clinique_Saint-Vincent_(Saint-Gr%C3%A9goire)</t>
+          <t>Clinique_Saint-Vincent_(Saint-Grégoire)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,14 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une première clinique Saint-Vincent existait dans la rue Jean Macé, à Rennes, depuis 1923[1].
-En 1988, la nouvelle clinique Saint-Vincent est construite dans la commune de Saint-Grégoire, au nord de Rennes. Les activités de la rue Jean Macé y sont transférées. En 2000, elle compte 175 lits[2].
-En janvier 1993, les directions de la clinique Saint-Vincent et de la clinique Volney sont regroupées dans une même entreprise, nommée Cliniques Privées Associées. Celle-ci rachète trois ans plus tard le centre obstétrico-pédiatrique de Bréquigny, dans le but de fusionner les trois établissements en un seul[3].
-Un nouvel équipement est construit à partir de 2002 sur le site de la clinique Saint-Vincent, sur la parcelle occupée par celle-ci et une deuxième parcelle située de l'autre côté de la route reliant Rennes à Saint-Grégoire[3]. Le nouveau centre hospitalier privé de Saint-Grégoire ouvre progressivement au cours de l'année 2004 et remplace la clinique Saint-Vincent[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une première clinique Saint-Vincent existait dans la rue Jean Macé, à Rennes, depuis 1923.
+En 1988, la nouvelle clinique Saint-Vincent est construite dans la commune de Saint-Grégoire, au nord de Rennes. Les activités de la rue Jean Macé y sont transférées. En 2000, elle compte 175 lits.
+En janvier 1993, les directions de la clinique Saint-Vincent et de la clinique Volney sont regroupées dans une même entreprise, nommée Cliniques Privées Associées. Celle-ci rachète trois ans plus tard le centre obstétrico-pédiatrique de Bréquigny, dans le but de fusionner les trois établissements en un seul.
+Un nouvel équipement est construit à partir de 2002 sur le site de la clinique Saint-Vincent, sur la parcelle occupée par celle-ci et une deuxième parcelle située de l'autre côté de la route reliant Rennes à Saint-Grégoire. Le nouveau centre hospitalier privé de Saint-Grégoire ouvre progressivement au cours de l'année 2004 et remplace la clinique Saint-Vincent.
 </t>
         </is>
       </c>
